--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1979.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1979.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.26834705600884</v>
+        <v>0.6159312725067139</v>
       </c>
       <c r="B1">
-        <v>2.363395215497113</v>
+        <v>1.580912709236145</v>
       </c>
       <c r="C1">
-        <v>8.936488989960761</v>
+        <v>3.874247312545776</v>
       </c>
       <c r="D1">
-        <v>2.408909709406726</v>
+        <v>5.390730381011963</v>
       </c>
       <c r="E1">
-        <v>1.111034326696231</v>
+        <v>1.609069466590881</v>
       </c>
     </row>
   </sheetData>
